--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\DiscordBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19F9EF7-8160-4785-AEF3-20B3F0634DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD94186-1CB6-4F5E-B5C4-AA3E2C1175F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19965" yWindow="5955" windowWidth="16920" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="4860" windowWidth="16920" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Thu</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,20 +62,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Fri</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지 종료 날짜
-Stop Notice Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지 종료 시각
-Stop Notice Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>조건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,12 +70,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>디스코드 봇 토큰
-Discord Bot Token</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bot token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop Notice Date
+공지 종료 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop Notice Time
+공지 종료 시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morning Sends
+조례 시 보낼 문장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조례 줌 들어오세요
+링크 : 줌 링크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Afternoon Sends
+종례 시 보낼 문장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종례 시간입니다. 밴드 종례 출석체크  해주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discord Bot Token
+디스코드 봇 토큰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조례, 종례 시 보낼 문장 중 줄 바꿈(Enter)이 필요하다면
+단축키 Alt+Enter로 쓰면 적용됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스코드 봇 토큰을 온라인으로 잘못 보내면 악용하는 경우가 있으니 조심해주세요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -224,11 +248,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -251,23 +323,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,6 +339,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,10 +634,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,11 +646,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>13</v>
+      <c r="A1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -592,7 +673,7 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5"/>
@@ -604,7 +685,7 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -619,37 +700,57 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>9</v>
+      <c r="A6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11">
         <v>0.61458333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+    <row r="9" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\DiscordBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD94186-1CB6-4F5E-B5C4-AA3E2C1175F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D1B43-82FE-4E13-8757-C98D2300AE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="4860" windowWidth="16920" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20130" yWindow="3765" windowWidth="16920" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,6 +360,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -646,10 +646,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -708,7 +708,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="11">
@@ -716,26 +716,26 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -743,12 +743,12 @@
       <c r="A12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>20</v>
       </c>
     </row>
